--- a/discussion/정리용.xlsx
+++ b/discussion/정리용.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="15075" windowHeight="5355"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="15075" windowHeight="5355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="html진행상황" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="1207" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>erp_attend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,277 @@
   </si>
   <si>
     <t>message_list(쪽지함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 휴가일수 계산해야한다. : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가날짜 입력창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용한사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from 휴가테이블 where 결재경로 = 100;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc.char(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차사용신청서(form)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재대기 리스트 html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 수정(비밀번호수정/사진수정(실사용은X 보여주기식으로)/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서장부터 리스트 출력 (같은부서사람만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_detail.html + employee.html 을 섞어서 만든다(유저가 바꿀수없는부분은 readonly)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당부서의 사원목록으로 변경(비고를 빼고!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wehagohelp.zendesk.com/hc/ko/articles/900000261443--%EA%B7%BC%ED%83%9C%EA%B4%80%EB%A6%AC-%EC%B6%9C%ED%87%B4%EA%B7%BC%EA%B8%B0%EB%A1%9D-%EB%A9%94%EB%89%B4-%EC%A1%B0%ED%9A%8C%ED%95%98%EA%B8%B0</t>
+  </si>
+  <si>
+    <t>여기서 우리에게 필요한것만 쓰자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜를 date로 받아서 -&gt; 기간검색 &amp; 정렬 용이하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>** 월별정렬을 검색으로 처리해서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>** 날짜상세검색을  (select)년도 + (select)월별 로만 정렬할 수 있도록!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>** 내외근여부 컬럼추가(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ㄴ 출퇴근입력할때 , 외근여부 y/n 필요 -&gt; 외근Y 선택하면 외근처리 되도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*** 근태정보 DB 수정필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자-DB-관리자 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 사용자 근태정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ 입력: 출근시간 / 퇴근시간 ==&gt;&gt; 사용자 main에서 버튼으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴㄴㄴ 9시이후면 : 무조건 지각(지각이더라도 출퇴근모두 찍으면 상태는 '정상처리') / 출퇴근모두 : 정상처리 / 외근 : 결재받을것임 / 상태(미처리/정상출근/휴가/결근) : 관리자가 휴가인지 결근인지 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ ㄴ일자/출근시간/퇴근시간/소정근무시간/초과근무시간/총근무시간/지각여부/외근여부/상태select(처리필요/정상출근/휴가/결근)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*개인이 볼때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*부서장이 모든결재대기문서들을 목록으로 볼수 있어야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태관리 목록(자기거만볼수있게)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(관리자)근태관리목록 html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ㄴ ㄴ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>외근신청서html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>필요 -&gt; 외근신청서 폼 (결재요청)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ 결재완료된 문서는 보이지않음(혹은 완료함으로 따로 만들어도되고) , discussion 의 포트폴리오 프린트 5번참조! 상신일/ 결재버튼추가하면될듯!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">연차 DB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 외근신청서와 비슷하게하면될듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ 민정이 만들어놓은거 수정필요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract.html 복붙해서 =&gt; 계약서 수정html 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_reg.html 수정필요 - td_20주고  .. 알아서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차신청(사용자) html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ ㄴ 관리자목록에서 맨끝에 '관리'컬럼 추가해서 : '수정'버튼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 휴가종류(연차/반차/휴직)/휴가시작일/종료일 추가 *vacation_info.html 위에! 일부수정하면 될듯!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 따로db만들지말고 , 신청html에서 인쇄-폼 인쇄 -&gt;근태관리자에게 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차사용신청서(form)/외근신청서 폼/html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(관리자)근태관리목록html/내정보html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태관리목록html(사용자)/결재대기리스트html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차신청(사용자)html/board_reg.html 수정//contract.html으로 '계약서수정'html 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +561,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +596,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +683,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -425,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -463,6 +768,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,20 +1094,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="37.75" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="25.625" customWidth="1"/>
     <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
@@ -794,7 +1121,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -834,7 +1161,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -858,7 +1185,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -868,7 +1195,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -883,7 +1210,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -898,7 +1225,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -918,7 +1245,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -933,7 +1260,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -948,7 +1275,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -963,7 +1290,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -983,7 +1310,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1003,7 +1330,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1018,7 +1345,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1028,7 +1355,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1044,9 +1371,12 @@
       <c r="B47" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1056,12 +1386,12 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="51" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1070,13 +1400,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1104,12 +1434,365 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:O58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>44172</v>
+      </c>
+      <c r="E6" s="15">
+        <v>44172</v>
+      </c>
+      <c r="G6" s="15">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>44173</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="N39" t="s">
+        <v>115</v>
+      </c>
+      <c r="O39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="N40" t="s">
+        <v>116</v>
+      </c>
+      <c r="O40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="N41" t="s">
+        <v>117</v>
+      </c>
+      <c r="O41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="N42" t="s">
+        <v>118</v>
+      </c>
+      <c r="O42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C49" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C49:I53"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/discussion/정리용.xlsx
+++ b/discussion/정리용.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="15075" windowHeight="5355" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="15075" windowHeight="5355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="html진행상황" sheetId="1" r:id="rId1"/>
     <sheet name="1207" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="1210" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>erp_attend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,6 +556,66 @@
     <t>연차신청(사용자)html/board_reg.html 수정//contract.html으로 '계약서수정'html 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>erp_approval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval_waiting(결재대기리스트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_trip_form(출장/외근폼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_modify(계약서수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacation_form(휴가신청서)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacation_reg(연차/휴가 신청)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_info(내정보관리)- 비밀번호변경가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimate_insert.html 삭제할까요?</t>
+  </si>
+  <si>
+    <t>estimate_form.html 을 contract_form.html 로 제목변경 ?</t>
+  </si>
+  <si>
+    <t>contract_list.html에서 품목삭제함(조인 귀찮을거같음..) : 거래처 담당자로 변경하고, 담당자누르면 모달창으로 담당자연락처/이메일 나오도록..하는게 더 낫겄다!</t>
+  </si>
+  <si>
+    <t>계약서목록html(contract_list) : checkbox 배치를 좀 더 이쁘게 -&gt; 검색용 체크박스를 말하는건가..??</t>
+  </si>
+  <si>
+    <t>admin_main.html 작업해야함-&gt;태주씨 개인작업물 main.html 참고하기로했었던거같</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진희언니 작업물 중 'vacation_reg.html' 에 신청일수 가 필요한지/안한지 회의필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board 테이블 구성</t>
+  </si>
+  <si>
+    <t>회사정보등록 테이블 필요할까요</t>
+  </si>
+  <si>
+    <t>구매요청서 테이블 구성</t>
+  </si>
+  <si>
+    <t>창고별 재고조회 테이블..?(창고랑 연결되는게 안보임)</t>
+  </si>
 </sst>
 </file>
 
@@ -564,7 +624,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,15 +648,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -616,6 +667,34 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -679,13 +758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,35 +840,47 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,15 +1183,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="10" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="25.625" customWidth="1"/>
@@ -1108,29 +1199,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>1</v>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>22</v>
+      <c r="A4" s="10" t="s">
+        <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>57</v>
@@ -1138,7 +1229,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>58</v>
@@ -1146,7 +1237,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>59</v>
@@ -1154,23 +1245,23 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>2</v>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>26</v>
+      <c r="A9" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>62</v>
@@ -1178,251 +1269,287 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
+    <row r="56" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="11" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="12" t="s">
+    <row r="58" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="10" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="10" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="19" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -1470,18 +1597,18 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="11">
         <v>44172</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>44172</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>44174</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>44173</v>
       </c>
       <c r="E7">
@@ -1561,7 +1688,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>121</v>
       </c>
       <c r="D23" t="s">
@@ -1569,7 +1696,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D24" t="s">
@@ -1577,7 +1704,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E25" t="s">
@@ -1585,7 +1712,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="14" t="s">
         <v>112</v>
       </c>
       <c r="E26" t="s">
@@ -1621,7 +1748,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="13" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1765,7 +1892,7 @@
       <c r="I53" s="16"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="14" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1800,12 +1927,114 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:G6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A8:I8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/discussion/정리용.xlsx
+++ b/discussion/정리용.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="15075" windowHeight="5355" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="html진행상황" sheetId="1" r:id="rId1"/>
     <sheet name="1207" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="1210" sheetId="3" r:id="rId3"/>
+    <sheet name="수정용" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="186">
   <si>
     <t>erp_attend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,15 +562,251 @@
     <t>연차신청(사용자)html/board_reg.html 수정//contract.html으로 '계약서수정'html 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>erp_approval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval_waiting(결재대기리스트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_trip_form(출장/외근폼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_modify(계약서수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacation_form(휴가신청서)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacation_reg(연차/휴가 신청)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_info(내정보관리)- 비밀번호변경가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimate_form.html 을 contract_form.html 로 제목변경 ?</t>
+  </si>
+  <si>
+    <t>contract_list.html에서 품목삭제함(조인 귀찮을거같음..) : 거래처 담당자로 변경하고, 담당자누르면 모달창으로 담당자연락처/이메일 나오도록..하는게 더 낫겄다!</t>
+  </si>
+  <si>
+    <t>계약서목록html(contract_list) : checkbox 배치를 좀 더 이쁘게 -&gt; 검색용 체크박스를 말하는건가..??</t>
+  </si>
+  <si>
+    <t>admin_main.html 작업해야함-&gt;태주씨 개인작업물 main.html 참고하기로했었던거같</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진희언니 작업물 중 'vacation_reg.html' 에 신청일수 가 필요한지/안한지 회의필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board 테이블 구성</t>
+  </si>
+  <si>
+    <t>구매요청서 테이블 구성</t>
+  </si>
+  <si>
+    <t>창고별 재고조회 테이블..?(창고랑 연결되는게 안보임)</t>
+  </si>
+  <si>
+    <t>* vacation_reg.html -&gt; 연차/반차/휴직! 으로 고칠것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 민정이 커밋메시지 지키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* worktime_list.html : 초과근무+지각 합쳐서 select나 라디오박스로 한 row로 만들기, padding 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사정보등록 테이블 필요할까요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 수업과 동일하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* root 말고 admin (권한일부제한) 사용하기로 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 구매요청서 테이블 -&gt; 태주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* user_attedance.html : 일자/출근시간.. (th)에 색깔넣기, 소정근로일을 빼고 지각일로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">estimate_insert.html 삭제할까요? </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 삭제하진않고 [안씀]으로변경</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* _main.html : hover로 메뉴변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* css 정리 : 태주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* company_info.html : 회기시작일-&gt;erp시작일로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* company_info.html : 정보수정/새로고침 btn css수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ 회사정보는 하나니깐. Insert/update 구분필요(정보가없으면 insert, 기존정보가 있으면 upate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 실제구성/메뉴구성따로 : form들을 따로 빼놓기위해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[안씀]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업관리(계약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산/제조관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;business_trip_form(출장/외근폼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인차량관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사정보관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;estimate_form(견적서/계약서 인쇄 폼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 헤더 디자인 예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사/급여관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자결재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval_complete(완결함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval_waiting(미결함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자결재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(사용자 전용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erp_myinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 정보관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 메인 대메뉴/소메뉴 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 메인 대메뉴/소메뉴 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소메뉴(상단 헤더버튼으로 이동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 헤더&gt;&gt; 관리자 / 홈(집모양)-사용자메인 / 쪽지함 / 로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 헤더&gt;&gt; 이름 직급 / 쪽지함 / 설정 / 로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erp_message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,15 +826,6 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -621,8 +854,70 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,13 +974,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,7 +1031,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,35 +1062,71 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,8 +1138,54 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>181287</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5657850"/>
+          <a:ext cx="2238687" cy="323895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -848,7 +1231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -883,7 +1266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1092,337 +1475,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="10" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="F3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="F4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="F5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="F7" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="F8" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="F10" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="20"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>11</v>
+      <c r="B36" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>46</v>
+      <c r="A38" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="3" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
+    <row r="57" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="11" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="12" t="s">
+    <row r="59" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="10" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C62" s="18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="10" t="s">
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C63" s="18" t="s">
         <v>64</v>
+      </c>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -1470,18 +1904,18 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="11">
         <v>44172</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>44172</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>44174</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>44173</v>
       </c>
       <c r="E7">
@@ -1561,7 +1995,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>121</v>
       </c>
       <c r="D23" t="s">
@@ -1569,7 +2003,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D24" t="s">
@@ -1577,7 +2011,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E25" t="s">
@@ -1585,7 +2019,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="14" t="s">
         <v>112</v>
       </c>
       <c r="E26" t="s">
@@ -1621,7 +2055,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="13" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1718,54 +2152,54 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="14" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1800,13 +2234,657 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:G6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A8:I8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
+    <col min="4" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="25.625" customWidth="1"/>
+    <col min="8" max="8" width="26.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="69.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="C13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="C14" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="C15" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="C17" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="C19" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="C22" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="C28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="26"/>
+      <c r="C32" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="26"/>
+      <c r="B33" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="26"/>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="26"/>
+      <c r="C36" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="26"/>
+      <c r="C37" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="26"/>
+      <c r="C39" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="26"/>
+      <c r="C40" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="26"/>
+      <c r="C42" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="26"/>
+      <c r="C44" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="26"/>
+      <c r="C45" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="26"/>
+      <c r="C47" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="26"/>
+      <c r="C48" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="26"/>
+      <c r="C49" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="26"/>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="26"/>
+      <c r="C52" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="69.75" x14ac:dyDescent="0.3">
+      <c r="B64" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/discussion/정리용.xlsx
+++ b/discussion/정리용.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\portfolio\discussion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="207">
   <si>
     <t>erp_attend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -767,10 +767,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내 정보관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자 메인 대메뉴/소메뉴 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -796,6 +792,94 @@
   </si>
   <si>
     <t>erp_message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacation_info_list(휴가사용이력조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacation_info(휴가사용내역 조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacation_reg(휴가사용신청)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;vacation_form(휴가신청서)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;contract_modify(계약서수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_list(계약서 목록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract(계약서 입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correspondent_list(거래처 목록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correspondent_reg(거래처 등록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOMnProcess(제품별 공정 및 소요자재 입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_list(상품 목록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_reg(상품 입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workCenter_reg(워크센터 입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;order_form(구매요청서 인쇄 폼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_view(게시글 상세보기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_write(게시글 작성하기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_list(게시판 목록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_reg(게시판 생성/관리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_info(회사기초정보 입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_info(내정보 관리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호변경 (모달창)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1031,7 +1115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,6 +1182,15 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1107,18 +1200,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1127,6 +1211,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1664,7 +1757,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C29" t="s">
@@ -1672,7 +1765,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C30" t="s">
@@ -2152,51 +2245,51 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
@@ -2243,58 +2336,58 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
@@ -2302,17 +2395,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
@@ -2404,12 +2497,12 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2429,10 +2522,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -2446,7 +2539,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69.75" x14ac:dyDescent="0.3">
       <c r="B1" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -2455,7 +2548,7 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>170</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2466,7 +2559,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>48</v>
       </c>
@@ -2475,7 +2568,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="28"/>
       <c r="C4" s="3" t="s">
         <v>49</v>
       </c>
@@ -2484,7 +2577,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
@@ -2493,7 +2586,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
@@ -2502,7 +2595,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
@@ -2511,7 +2604,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="28"/>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
@@ -2520,7 +2613,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="28" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2531,11 +2624,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="28"/>
       <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="23" t="s">
         <v>164</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2543,7 +2636,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -2552,336 +2645,335 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="28"/>
       <c r="C12" s="4" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="28"/>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="C14" s="4" t="s">
-        <v>133</v>
+        <v>187</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="C15" s="4" t="s">
-        <v>134</v>
+      <c r="A15" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>4</v>
+      <c r="A16" s="28"/>
+      <c r="C16" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
+      <c r="A17" s="28"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="32" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="28"/>
       <c r="C18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="C19" s="5" t="s">
-        <v>132</v>
+      <c r="A19" s="28"/>
+      <c r="B19" s="10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="10" t="s">
-        <v>5</v>
+      <c r="A20" s="28"/>
+      <c r="C20" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="28"/>
       <c r="C21" s="5" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="C22" s="5" t="s">
-        <v>32</v>
+      <c r="A22" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>10</v>
+      <c r="A23" s="28"/>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
+      <c r="A24" s="28"/>
       <c r="C24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
+      <c r="A25" s="28"/>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
+      <c r="A26" s="28"/>
+      <c r="B26" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="10" t="s">
-        <v>11</v>
+      <c r="A27" s="28"/>
+      <c r="C27" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
+      <c r="A28" s="28"/>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
+      <c r="A29" s="28"/>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="C30" s="1" t="s">
-        <v>47</v>
+      <c r="A30" s="28"/>
+      <c r="B30" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="10" t="s">
-        <v>13</v>
+      <c r="A31" s="28"/>
+      <c r="C31" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="C32" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="10" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="C34" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="C33" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="C36" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="C37" s="7" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
+      <c r="C35" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="D35" s="34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="C39" s="8" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
+      <c r="C37" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="C40" s="8" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="C38" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
         <v>166</v>
       </c>
+      <c r="B39" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+      <c r="C40" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>172</v>
+      </c>
       <c r="B41" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="C42" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C41" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="C44" s="5" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="C42" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="C45" s="5" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+      <c r="C43" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="26" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="28"/>
+      <c r="C45" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="28"/>
+      <c r="C46" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="28"/>
       <c r="C47" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
       <c r="C48" s="2" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="C49" s="2" t="s">
-        <v>24</v>
+      <c r="A49" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="C50" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
-      <c r="C52" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="30" t="s">
+      <c r="A50" s="28"/>
+      <c r="C50" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>181</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>182</v>
+      <c r="C55" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C58" s="18" t="s">
+      <c r="C56" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="69.75" x14ac:dyDescent="0.3">
-      <c r="B64" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
+    <row r="62" spans="1:8" ht="69.75" x14ac:dyDescent="0.3">
+      <c r="B62" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A51:A52"/>
+  <mergeCells count="14">
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A44:A48"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
